--- a/data/order_db.xlsx
+++ b/data/order_db.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ordered</t>
+          <t>Cancelled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
